--- a/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB770D4C-BE62-4890-83F6-1406B85E3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C089E4-4CBA-479A-99CB-A06BC4C709DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B28DA68-4709-46E7-A507-F1D05D378FB7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22927932-A036-4C9D-B317-BD5083CEBF1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="331">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,955 +74,958 @@
     <t>1,21%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>No fumo, pero he fumado antes diariamente</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>No fumo, pero he fumado antes diariamente</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,34%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1437,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B6F661-7267-418E-88B3-542278CF31EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7A5500-5730-41ED-BE86-06BDB206F941}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1630,10 +1633,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -1642,10 +1645,10 @@
         <v>4745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>28</v>
@@ -1684,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1693,19 +1696,19 @@
         <v>423</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1714,13 +1717,13 @@
         <v>3509</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1729,13 +1732,13 @@
         <v>488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1744,19 +1747,19 @@
         <v>3997</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1765,13 +1768,13 @@
         <v>5058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1786,7 +1789,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1795,19 +1798,19 @@
         <v>5058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7">
         <v>319</v>
@@ -1816,13 +1819,13 @@
         <v>246936</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>526</v>
@@ -1831,13 +1834,13 @@
         <v>265105</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>845</v>
@@ -1846,13 +1849,13 @@
         <v>512040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1870,13 @@
         <v>260298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>538</v>
@@ -1882,13 +1885,13 @@
         <v>271403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>869</v>
@@ -1897,18 +1900,18 @@
         <v>531700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1920,13 +1923,13 @@
         <v>14315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1935,13 +1938,13 @@
         <v>13084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -1950,13 +1953,13 @@
         <v>27399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1974,13 @@
         <v>20361</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1986,13 +1989,13 @@
         <v>4762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -2001,13 +2004,13 @@
         <v>25123</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2025,13 @@
         <v>10392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2037,13 +2040,13 @@
         <v>2089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2052,19 +2055,19 @@
         <v>12481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -2073,13 +2076,13 @@
         <v>9500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2088,13 +2091,13 @@
         <v>1878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2103,19 +2106,19 @@
         <v>11378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -2124,13 +2127,13 @@
         <v>6439</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2139,13 +2142,13 @@
         <v>1446</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2154,19 +2157,19 @@
         <v>7885</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7">
         <v>346</v>
@@ -2211,7 +2214,7 @@
         <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2229,13 @@
         <v>519297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>717</v>
@@ -2241,13 +2244,13 @@
         <v>554566</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>1099</v>
@@ -2256,18 +2259,18 @@
         <v>1073864</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2279,13 +2282,13 @@
         <v>5898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2294,13 +2297,13 @@
         <v>3007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2309,13 +2312,13 @@
         <v>8905</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2333,13 @@
         <v>960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2345,13 +2348,13 @@
         <v>2750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2360,13 +2363,13 @@
         <v>3710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2399,13 @@
         <v>2738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2411,19 +2414,19 @@
         <v>6523</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2432,13 +2435,13 @@
         <v>1521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2453,7 +2456,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2462,19 +2465,19 @@
         <v>1521</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2489,7 +2492,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2504,7 +2507,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2513,19 +2516,19 @@
         <v>593</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7">
         <v>348</v>
@@ -2534,13 +2537,13 @@
         <v>310077</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>523</v>
@@ -2549,13 +2552,13 @@
         <v>364196</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>871</v>
@@ -2564,13 +2567,13 @@
         <v>674273</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2588,13 @@
         <v>322240</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>536</v>
@@ -2600,13 +2603,13 @@
         <v>373284</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>896</v>
@@ -2615,18 +2618,18 @@
         <v>695524</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2638,13 +2641,13 @@
         <v>8852</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2653,13 +2656,13 @@
         <v>12188</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2668,13 +2671,13 @@
         <v>21040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2692,13 @@
         <v>6739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2704,13 +2707,13 @@
         <v>5262</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2719,13 +2722,13 @@
         <v>12001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2743,13 @@
         <v>1851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2761,7 +2764,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
@@ -2770,19 +2773,19 @@
         <v>3240</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -2791,13 +2794,13 @@
         <v>2453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2806,13 +2809,13 @@
         <v>3481</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -2821,19 +2824,19 @@
         <v>5934</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2842,13 +2845,13 @@
         <v>2422</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2857,13 +2860,13 @@
         <v>3600</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2872,19 +2875,19 @@
         <v>6022</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C30" s="7">
         <v>277</v>
@@ -2893,13 +2896,13 @@
         <v>299924</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="H30" s="7">
         <v>573</v>
@@ -2908,13 +2911,13 @@
         <v>402636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -2923,13 +2926,13 @@
         <v>702560</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2947,13 @@
         <v>322240</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>599</v>
@@ -2959,13 +2962,13 @@
         <v>428556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M31" s="7">
         <v>891</v>
@@ -2974,18 +2977,18 @@
         <v>750796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2997,13 +3000,13 @@
         <v>27382</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>108</v>
@@ -3012,13 +3015,13 @@
         <v>47511</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M32" s="7">
         <v>148</v>
@@ -3027,13 +3030,13 @@
         <v>74892</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3051,13 @@
         <v>1498</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -3063,13 +3066,13 @@
         <v>2300</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -3078,13 +3081,13 @@
         <v>3799</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3102,13 @@
         <v>762</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3114,13 +3117,13 @@
         <v>1756</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3129,19 +3132,19 @@
         <v>2518</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3150,13 +3153,13 @@
         <v>749</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3165,13 +3168,13 @@
         <v>1263</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3180,19 +3183,19 @@
         <v>2012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3207,7 +3210,7 @@
         <v>30</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3216,13 +3219,13 @@
         <v>401</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3231,19 +3234,19 @@
         <v>401</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7">
         <v>235</v>
@@ -3252,13 +3255,13 @@
         <v>166357</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>373</v>
@@ -3267,13 +3270,13 @@
         <v>178672</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>608</v>
@@ -3282,13 +3285,13 @@
         <v>345029</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3306,13 @@
         <v>196748</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H38" s="7">
         <v>492</v>
@@ -3318,13 +3321,13 @@
         <v>231903</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M38" s="7">
         <v>771</v>
@@ -3333,18 +3336,18 @@
         <v>428651</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3356,13 +3359,13 @@
         <v>12810</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -3371,13 +3374,13 @@
         <v>4740</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M39" s="7">
         <v>16</v>
@@ -3386,13 +3389,13 @@
         <v>17550</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3410,13 @@
         <v>947</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3422,13 +3425,13 @@
         <v>1985</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -3437,13 +3440,13 @@
         <v>2933</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,7 +3467,7 @@
         <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3473,13 +3476,13 @@
         <v>2015</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3488,19 +3491,19 @@
         <v>2015</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -3509,13 +3512,13 @@
         <v>863</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3524,13 +3527,13 @@
         <v>940</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -3539,19 +3542,19 @@
         <v>1804</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3566,7 +3569,7 @@
         <v>30</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3581,7 +3584,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3596,13 +3599,13 @@
         <v>30</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" s="7">
         <v>358</v>
@@ -3611,13 +3614,13 @@
         <v>262603</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H44" s="7">
         <v>449</v>
@@ -3626,13 +3629,13 @@
         <v>265942</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M44" s="7">
         <v>807</v>
@@ -3641,13 +3644,13 @@
         <v>528544</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3665,13 @@
         <v>277223</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H45" s="7">
         <v>460</v>
@@ -3677,13 +3680,13 @@
         <v>275622</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M45" s="7">
         <v>831</v>
@@ -3692,18 +3695,18 @@
         <v>552845</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3715,13 +3718,13 @@
         <v>31252</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
@@ -3730,13 +3733,13 @@
         <v>27101</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="M46" s="7">
         <v>53</v>
@@ -3745,13 +3748,13 @@
         <v>58353</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3769,13 @@
         <v>16232</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H47" s="7">
         <v>15</v>
@@ -3781,13 +3784,13 @@
         <v>10581</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="M47" s="7">
         <v>33</v>
@@ -3796,13 +3799,13 @@
         <v>26812</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3820,13 @@
         <v>8738</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -3832,13 +3835,13 @@
         <v>8174</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M48" s="7">
         <v>16</v>
@@ -3847,19 +3850,19 @@
         <v>16912</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>19</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>8</v>
@@ -3868,13 +3871,13 @@
         <v>9061</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -3886,10 +3889,10 @@
         <v>17</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
@@ -3901,16 +3904,16 @@
         <v>11</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C50" s="7">
         <v>5</v>
@@ -3919,13 +3922,13 @@
         <v>11195</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -3934,13 +3937,13 @@
         <v>6057</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -3949,19 +3952,19 @@
         <v>17251</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C51" s="7">
         <v>526</v>
@@ -3970,13 +3973,13 @@
         <v>543341</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H51" s="7">
         <v>890</v>
@@ -3985,13 +3988,13 @@
         <v>736977</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M51" s="7">
         <v>1416</v>
@@ -4021,13 +4024,13 @@
         <v>619818</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H52" s="7">
         <v>950</v>
@@ -4036,13 +4039,13 @@
         <v>797042</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M52" s="7">
         <v>1541</v>
@@ -4051,13 +4054,13 @@
         <v>1416860</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,10 +4080,10 @@
         <v>11</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H53" s="7">
         <v>15</v>
@@ -4089,13 +4092,13 @@
         <v>15719</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="M53" s="7">
         <v>23</v>
@@ -4104,10 +4107,10 @@
         <v>26109</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>275</v>
@@ -4125,13 +4128,13 @@
         <v>4789</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="H54" s="7">
         <v>11</v>
@@ -4140,10 +4143,10 @@
         <v>14729</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>278</v>
@@ -4158,10 +4161,10 @@
         <v>279</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,10 +4182,10 @@
         <v>280</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="H55" s="7">
         <v>8</v>
@@ -4191,13 +4194,13 @@
         <v>8139</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M55" s="7">
         <v>18</v>
@@ -4206,19 +4209,19 @@
         <v>21992</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>282</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C56" s="7">
         <v>9</v>
@@ -4230,10 +4233,10 @@
         <v>11</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="H56" s="7">
         <v>10</v>
@@ -4242,13 +4245,13 @@
         <v>10056</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>283</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M56" s="7">
         <v>19</v>
@@ -4257,10 +4260,10 @@
         <v>20467</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>286</v>
@@ -4269,7 +4272,7 @@
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C57" s="7">
         <v>3</v>
@@ -4281,7 +4284,7 @@
         <v>287</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>288</v>
@@ -4293,13 +4296,13 @@
         <v>4520</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="M57" s="7">
         <v>8</v>
@@ -4308,19 +4311,19 @@
         <v>58313</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>124</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C58" s="7">
         <v>725</v>
@@ -4329,13 +4332,13 @@
         <v>764110</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H58" s="7">
         <v>1013</v>
@@ -4344,13 +4347,13 @@
         <v>815271</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M58" s="7">
         <v>1738</v>
@@ -4359,13 +4362,13 @@
         <v>1579381</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4383,13 @@
         <v>857347</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H59" s="7">
         <v>1062</v>
@@ -4395,13 +4398,13 @@
         <v>868434</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M59" s="7">
         <v>1822</v>
@@ -4410,13 +4413,13 @@
         <v>1725781</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4436,13 @@
         <v>114039</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H60" s="7">
         <v>189</v>
@@ -4448,13 +4451,13 @@
         <v>125646</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M60" s="7">
         <v>295</v>
@@ -4463,13 +4466,13 @@
         <v>239685</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,7 +4487,7 @@
         <v>53180</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>307</v>
@@ -4502,7 +4505,7 @@
         <v>309</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>310</v>
@@ -4514,7 +4517,7 @@
         <v>98641</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>311</v>
@@ -4538,10 +4541,10 @@
         <v>123</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="H62" s="7">
         <v>31</v>
@@ -4550,13 +4553,13 @@
         <v>26722</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="M62" s="7">
         <v>61</v>
@@ -4565,19 +4568,19 @@
         <v>66103</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P62" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="Q62" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C63" s="7">
         <v>29</v>
@@ -4589,10 +4592,10 @@
         <v>279</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="H63" s="7">
         <v>24</v>
@@ -4601,13 +4604,13 @@
         <v>26260</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M63" s="7">
         <v>53</v>
@@ -4616,19 +4619,19 @@
         <v>64326</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C64" s="7">
         <v>15</v>
@@ -4637,13 +4640,13 @@
         <v>78906</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H64" s="7">
         <v>17</v>
@@ -4652,13 +4655,13 @@
         <v>16617</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M64" s="7">
         <v>32</v>
@@ -4667,19 +4670,19 @@
         <v>95523</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C65" s="7">
         <v>3134</v>
@@ -4688,13 +4691,13 @@
         <v>3051637</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H65" s="7">
         <v>5041</v>
@@ -4703,13 +4706,13 @@
         <v>3560106</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M65" s="7">
         <v>8175</v>
@@ -4718,13 +4721,13 @@
         <v>6611743</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,16 +4739,16 @@
         <v>3366</v>
       </c>
       <c r="D66" s="7">
-        <v>3375211</v>
+        <v>3375210</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H66" s="7">
         <v>5354</v>
@@ -4754,13 +4757,13 @@
         <v>3800811</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M66" s="7">
         <v>8720</v>
@@ -4769,18 +4772,18 @@
         <v>7176022</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C089E4-4CBA-479A-99CB-A06BC4C709DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108AC259-4522-47B5-A359-332A565A3EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22927932-A036-4C9D-B317-BD5083CEBF1E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{003B6FBF-61C6-4604-8A89-A57544D3D336}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7A5500-5730-41ED-BE86-06BDB206F941}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F265EF-8633-403B-B775-DE6B8DB73E65}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108AC259-4522-47B5-A359-332A565A3EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA75731-02E3-41BE-9B0D-47BB60285740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{003B6FBF-61C6-4604-8A89-A57544D3D336}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{189EF469-602F-4E4C-B0B0-A0E0FCE686F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="330">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>No fumo, pero he fumado antes diariamente</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,18%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>Fumo diariamente</t>
@@ -137,895 +137,892 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,08%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>8,28%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,53%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1440,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F265EF-8633-403B-B775-DE6B8DB73E65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C203D85-0344-4999-A646-E921852DABAF}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1633,10 +1630,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -1645,10 +1642,10 @@
         <v>4745</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>28</v>
@@ -1687,7 +1684,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1696,19 +1693,19 @@
         <v>423</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1717,13 +1714,13 @@
         <v>3509</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1732,13 +1729,13 @@
         <v>488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1747,19 +1744,19 @@
         <v>3997</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1768,13 +1765,13 @@
         <v>5058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1789,7 +1786,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1798,19 +1795,19 @@
         <v>5058</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7">
         <v>319</v>
@@ -1819,13 +1816,13 @@
         <v>246936</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>526</v>
@@ -1834,13 +1831,13 @@
         <v>265105</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>845</v>
@@ -1849,13 +1846,13 @@
         <v>512040</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1867,13 @@
         <v>260298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>538</v>
@@ -1885,13 +1882,13 @@
         <v>271403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>869</v>
@@ -1900,18 +1897,18 @@
         <v>531700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1923,13 +1920,13 @@
         <v>14315</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1938,13 +1935,13 @@
         <v>13084</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -1953,13 +1950,13 @@
         <v>27399</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1971,13 @@
         <v>20361</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1989,13 +1986,13 @@
         <v>4762</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -2004,13 +2001,13 @@
         <v>25123</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2022,13 @@
         <v>10392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2040,13 +2037,13 @@
         <v>2089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2055,19 +2052,19 @@
         <v>12481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -2076,13 +2073,13 @@
         <v>9500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2091,13 +2088,13 @@
         <v>1878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2106,19 +2103,19 @@
         <v>11378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -2127,13 +2124,13 @@
         <v>6439</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2142,13 +2139,13 @@
         <v>1446</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2157,19 +2154,19 @@
         <v>7885</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7">
         <v>346</v>
@@ -2214,7 +2211,7 @@
         <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2226,13 @@
         <v>519297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>717</v>
@@ -2244,13 +2241,13 @@
         <v>554566</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>1099</v>
@@ -2259,18 +2256,18 @@
         <v>1073864</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2282,13 +2279,13 @@
         <v>5898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2297,13 +2294,13 @@
         <v>3007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2312,13 +2309,13 @@
         <v>8905</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2330,13 @@
         <v>960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2348,13 +2345,13 @@
         <v>2750</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2363,13 +2360,13 @@
         <v>3710</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2396,13 @@
         <v>2738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2414,19 +2411,19 @@
         <v>6523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2435,13 +2432,13 @@
         <v>1521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2456,7 +2453,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2465,19 +2462,19 @@
         <v>1521</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2492,7 +2489,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2507,7 +2504,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2516,19 +2513,19 @@
         <v>593</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="7">
         <v>348</v>
@@ -2537,13 +2534,13 @@
         <v>310077</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>523</v>
@@ -2552,13 +2549,13 @@
         <v>364196</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>871</v>
@@ -2567,13 +2564,13 @@
         <v>674273</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2585,13 @@
         <v>322240</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H24" s="7">
         <v>536</v>
@@ -2603,13 +2600,13 @@
         <v>373284</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M24" s="7">
         <v>896</v>
@@ -2618,18 +2615,18 @@
         <v>695524</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2641,13 +2638,13 @@
         <v>8852</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2656,13 +2653,13 @@
         <v>12188</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2671,13 +2668,13 @@
         <v>21040</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2689,13 @@
         <v>6739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2707,13 +2704,13 @@
         <v>5262</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2722,13 +2719,13 @@
         <v>12001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2740,13 @@
         <v>1851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2764,7 +2761,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
@@ -2773,19 +2770,19 @@
         <v>3240</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -2794,13 +2791,13 @@
         <v>2453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2809,13 +2806,13 @@
         <v>3481</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -2824,19 +2821,19 @@
         <v>5934</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2845,13 +2842,13 @@
         <v>2422</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2860,13 +2857,13 @@
         <v>3600</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2875,19 +2872,19 @@
         <v>6022</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7">
         <v>277</v>
@@ -2896,13 +2893,13 @@
         <v>299924</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>573</v>
@@ -2911,13 +2908,13 @@
         <v>402636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -2926,13 +2923,13 @@
         <v>702560</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2944,13 @@
         <v>322240</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H31" s="7">
         <v>599</v>
@@ -2962,13 +2959,13 @@
         <v>428556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M31" s="7">
         <v>891</v>
@@ -2977,18 +2974,18 @@
         <v>750796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3000,13 +2997,13 @@
         <v>27382</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>108</v>
@@ -3015,13 +3012,13 @@
         <v>47511</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>148</v>
@@ -3030,13 +3027,13 @@
         <v>74892</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3048,13 @@
         <v>1498</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -3066,13 +3063,13 @@
         <v>2300</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -3081,13 +3078,13 @@
         <v>3799</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3099,13 @@
         <v>762</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3117,13 +3114,13 @@
         <v>1756</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3132,19 +3129,19 @@
         <v>2518</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3153,13 +3150,13 @@
         <v>749</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3168,13 +3165,13 @@
         <v>1263</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3183,19 +3180,19 @@
         <v>2012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3210,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3219,13 +3216,13 @@
         <v>401</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3234,19 +3231,19 @@
         <v>401</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7">
         <v>235</v>
@@ -3255,13 +3252,13 @@
         <v>166357</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H37" s="7">
         <v>373</v>
@@ -3270,13 +3267,13 @@
         <v>178672</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M37" s="7">
         <v>608</v>
@@ -3285,13 +3282,13 @@
         <v>345029</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3303,13 @@
         <v>196748</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H38" s="7">
         <v>492</v>
@@ -3321,13 +3318,13 @@
         <v>231903</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M38" s="7">
         <v>771</v>
@@ -3336,18 +3333,18 @@
         <v>428651</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3359,13 +3356,13 @@
         <v>12810</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -3374,13 +3371,13 @@
         <v>4740</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M39" s="7">
         <v>16</v>
@@ -3389,13 +3386,13 @@
         <v>17550</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3407,13 @@
         <v>947</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3425,13 +3422,13 @@
         <v>1985</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -3440,13 +3437,13 @@
         <v>2933</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3464,7 @@
         <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3476,13 +3473,13 @@
         <v>2015</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3491,19 +3488,19 @@
         <v>2015</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -3512,13 +3509,13 @@
         <v>863</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3527,13 +3524,13 @@
         <v>940</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -3542,19 +3539,19 @@
         <v>1804</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3569,7 +3566,7 @@
         <v>30</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3584,7 +3581,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3599,13 +3596,13 @@
         <v>30</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>358</v>
@@ -3614,13 +3611,13 @@
         <v>262603</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H44" s="7">
         <v>449</v>
@@ -3629,13 +3626,13 @@
         <v>265942</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M44" s="7">
         <v>807</v>
@@ -3644,13 +3641,13 @@
         <v>528544</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3662,13 @@
         <v>277223</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>460</v>
@@ -3680,13 +3677,13 @@
         <v>275622</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>831</v>
@@ -3695,18 +3692,18 @@
         <v>552845</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3718,13 +3715,13 @@
         <v>31252</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
@@ -3733,13 +3730,13 @@
         <v>27101</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M46" s="7">
         <v>53</v>
@@ -3748,13 +3745,13 @@
         <v>58353</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3766,13 @@
         <v>16232</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H47" s="7">
         <v>15</v>
@@ -3784,13 +3781,13 @@
         <v>10581</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="M47" s="7">
         <v>33</v>
@@ -3799,13 +3796,13 @@
         <v>26812</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3817,13 @@
         <v>8738</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>71</v>
+        <v>252</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -3835,13 +3832,13 @@
         <v>8174</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M48" s="7">
         <v>16</v>
@@ -3850,19 +3847,19 @@
         <v>16912</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C49" s="7">
         <v>8</v>
@@ -3871,13 +3868,13 @@
         <v>9061</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -3889,10 +3886,10 @@
         <v>17</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
@@ -3904,16 +3901,16 @@
         <v>11</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" s="7">
         <v>5</v>
@@ -3922,13 +3919,13 @@
         <v>11195</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -3937,13 +3934,13 @@
         <v>6057</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -3952,19 +3949,19 @@
         <v>17251</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="7">
         <v>526</v>
@@ -3973,13 +3970,13 @@
         <v>543341</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="H51" s="7">
         <v>890</v>
@@ -3988,13 +3985,13 @@
         <v>736977</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="M51" s="7">
         <v>1416</v>
@@ -4024,13 +4021,13 @@
         <v>619818</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H52" s="7">
         <v>950</v>
@@ -4039,13 +4036,13 @@
         <v>797042</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M52" s="7">
         <v>1541</v>
@@ -4054,13 +4051,13 @@
         <v>1416860</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4077,10 @@
         <v>11</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H53" s="7">
         <v>15</v>
@@ -4092,13 +4089,13 @@
         <v>15719</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="M53" s="7">
         <v>23</v>
@@ -4107,10 +4104,10 @@
         <v>26109</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>275</v>
@@ -4128,13 +4125,13 @@
         <v>4789</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>276</v>
+        <v>35</v>
       </c>
       <c r="H54" s="7">
         <v>11</v>
@@ -4143,10 +4140,10 @@
         <v>14729</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>278</v>
@@ -4161,10 +4158,10 @@
         <v>279</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,10 +4179,10 @@
         <v>280</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="H55" s="7">
         <v>8</v>
@@ -4194,13 +4191,13 @@
         <v>8139</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M55" s="7">
         <v>18</v>
@@ -4209,19 +4206,19 @@
         <v>21992</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>19</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C56" s="7">
         <v>9</v>
@@ -4233,10 +4230,10 @@
         <v>11</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="H56" s="7">
         <v>10</v>
@@ -4245,13 +4242,13 @@
         <v>10056</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>283</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M56" s="7">
         <v>19</v>
@@ -4260,10 +4257,10 @@
         <v>20467</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>286</v>
@@ -4272,7 +4269,7 @@
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" s="7">
         <v>3</v>
@@ -4284,7 +4281,7 @@
         <v>287</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>288</v>
@@ -4296,13 +4293,13 @@
         <v>4520</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="M57" s="7">
         <v>8</v>
@@ -4311,19 +4308,19 @@
         <v>58313</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>124</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" s="7">
         <v>725</v>
@@ -4332,13 +4329,13 @@
         <v>764110</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H58" s="7">
         <v>1013</v>
@@ -4347,13 +4344,13 @@
         <v>815271</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M58" s="7">
         <v>1738</v>
@@ -4362,13 +4359,13 @@
         <v>1579381</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4380,13 @@
         <v>857347</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H59" s="7">
         <v>1062</v>
@@ -4398,13 +4395,13 @@
         <v>868434</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M59" s="7">
         <v>1822</v>
@@ -4413,13 +4410,13 @@
         <v>1725781</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4433,13 @@
         <v>114039</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H60" s="7">
         <v>189</v>
@@ -4451,13 +4448,13 @@
         <v>125646</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M60" s="7">
         <v>295</v>
@@ -4466,13 +4463,13 @@
         <v>239685</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="P60" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4484,7 @@
         <v>53180</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>307</v>
@@ -4505,7 +4502,7 @@
         <v>309</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>310</v>
@@ -4517,7 +4514,7 @@
         <v>98641</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>311</v>
@@ -4541,10 +4538,10 @@
         <v>123</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="H62" s="7">
         <v>31</v>
@@ -4553,13 +4550,13 @@
         <v>26722</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="M62" s="7">
         <v>61</v>
@@ -4568,19 +4565,19 @@
         <v>66103</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63" s="7">
         <v>29</v>
@@ -4592,10 +4589,10 @@
         <v>279</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="H63" s="7">
         <v>24</v>
@@ -4604,13 +4601,13 @@
         <v>26260</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M63" s="7">
         <v>53</v>
@@ -4619,19 +4616,19 @@
         <v>64326</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>316</v>
+        <v>142</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>317</v>
+        <v>21</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" s="7">
         <v>15</v>
@@ -4640,13 +4637,13 @@
         <v>78906</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H64" s="7">
         <v>17</v>
@@ -4655,13 +4652,13 @@
         <v>16617</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M64" s="7">
         <v>32</v>
@@ -4670,19 +4667,19 @@
         <v>95523</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C65" s="7">
         <v>3134</v>
@@ -4691,13 +4688,13 @@
         <v>3051637</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H65" s="7">
         <v>5041</v>
@@ -4706,13 +4703,13 @@
         <v>3560106</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M65" s="7">
         <v>8175</v>
@@ -4721,13 +4718,13 @@
         <v>6611743</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,16 +4736,16 @@
         <v>3366</v>
       </c>
       <c r="D66" s="7">
-        <v>3375210</v>
+        <v>3375211</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H66" s="7">
         <v>5354</v>
@@ -4757,13 +4754,13 @@
         <v>3800811</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M66" s="7">
         <v>8720</v>
@@ -4772,18 +4769,18 @@
         <v>7176022</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA75731-02E3-41BE-9B0D-47BB60285740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0EDCCDB-67D1-4671-BE4B-D22ECC6A7634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{189EF469-602F-4E4C-B0B0-A0E0FCE686F7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB0F77F7-19CE-441C-A29E-910ED0F3C8C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="341">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,955 +74,988 @@
     <t>1,21%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>No fumo, pero he fumado antes diariamente</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>3,47%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>No fumo, pero he fumado antes diariamente</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1437,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C203D85-0344-4999-A646-E921852DABAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C74FA7-DB1B-40C9-9025-5719BFA407E2}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1558,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>3141</v>
+        <v>3760</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1573,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>2296</v>
+        <v>2425</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1588,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>5437</v>
+        <v>6185</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1609,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1654</v>
+        <v>2041</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1624,37 +1657,37 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>3091</v>
+        <v>3558</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>4745</v>
+        <v>5599</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1666,112 +1699,112 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3509</v>
+        <v>4329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>3997</v>
+        <v>4837</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>5058</v>
+        <v>8344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1783,76 +1816,76 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>5058</v>
+        <v>8344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7">
         <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>246936</v>
+        <v>292968</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>526</v>
       </c>
       <c r="I9" s="7">
-        <v>265105</v>
+        <v>282704</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>845</v>
       </c>
       <c r="N9" s="7">
-        <v>512040</v>
+        <v>575671</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,51 +1897,51 @@
         <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>538</v>
       </c>
       <c r="I10" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>869</v>
       </c>
       <c r="N10" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1917,46 +1950,46 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>14315</v>
+        <v>14889</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>13084</v>
+        <v>12121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
       </c>
       <c r="N11" s="7">
-        <v>27399</v>
+        <v>27010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,250 +2001,250 @@
         <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>20361</v>
+        <v>20101</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>4762</v>
+        <v>4416</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
       </c>
       <c r="N12" s="7">
-        <v>25123</v>
+        <v>24517</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>10392</v>
+        <v>10951</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>2089</v>
+        <v>1897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>12481</v>
+        <v>12848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>9500</v>
+        <v>10070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1878</v>
+        <v>1733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>11378</v>
+        <v>11804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>6439</v>
+        <v>8478</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1446</v>
+        <v>1333</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
       </c>
       <c r="N15" s="7">
-        <v>7885</v>
+        <v>9810</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7">
         <v>346</v>
       </c>
       <c r="D16" s="7">
-        <v>458289</v>
+        <v>453901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>694</v>
       </c>
       <c r="I16" s="7">
-        <v>531307</v>
+        <v>493470</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>1040</v>
       </c>
       <c r="N16" s="7">
-        <v>989597</v>
+        <v>947370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,51 +2256,51 @@
         <v>382</v>
       </c>
       <c r="D17" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>717</v>
       </c>
       <c r="I17" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>1099</v>
       </c>
       <c r="N17" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2276,46 +2309,46 @@
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>5898</v>
+        <v>5685</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>3007</v>
+        <v>2802</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>8905</v>
+        <v>8487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,118 +2360,118 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2750</v>
+        <v>2588</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>3710</v>
+        <v>3518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>3785</v>
+        <v>3917</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2738</v>
+        <v>2565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>6523</v>
+        <v>6483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1521</v>
+        <v>1564</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2450,31 +2483,31 @@
         <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>1521</v>
+        <v>1564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2486,91 +2519,91 @@
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7">
         <v>348</v>
       </c>
       <c r="D23" s="7">
-        <v>310077</v>
+        <v>303954</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>523</v>
       </c>
       <c r="I23" s="7">
-        <v>364196</v>
+        <v>340621</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>871</v>
       </c>
       <c r="N23" s="7">
-        <v>674273</v>
+        <v>644575</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,51 +2615,51 @@
         <v>360</v>
       </c>
       <c r="D24" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H24" s="7">
         <v>536</v>
       </c>
       <c r="I24" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M24" s="7">
         <v>896</v>
       </c>
       <c r="N24" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2635,46 +2668,46 @@
         <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>8852</v>
+        <v>9348</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>12188</v>
+        <v>11313</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>21040</v>
+        <v>20661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,250 +2719,250 @@
         <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>6739</v>
+        <v>6182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>5262</v>
+        <v>4716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>12001</v>
+        <v>10898</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>1851</v>
+        <v>1630</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
       </c>
       <c r="I27" s="7">
-        <v>1389</v>
+        <v>1297</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
       </c>
       <c r="N27" s="7">
-        <v>3240</v>
+        <v>2927</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>2453</v>
+        <v>2545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>3481</v>
+        <v>3217</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>5934</v>
+        <v>5762</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>2422</v>
+        <v>2499</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>3600</v>
+        <v>3314</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>6022</v>
+        <v>5813</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C30" s="7">
         <v>277</v>
       </c>
       <c r="D30" s="7">
-        <v>299924</v>
+        <v>290352</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
         <v>573</v>
       </c>
       <c r="I30" s="7">
-        <v>402636</v>
+        <v>451862</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
       </c>
       <c r="N30" s="7">
-        <v>702560</v>
+        <v>742213</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,51 +2974,51 @@
         <v>292</v>
       </c>
       <c r="D31" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H31" s="7">
         <v>599</v>
       </c>
       <c r="I31" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M31" s="7">
         <v>891</v>
       </c>
       <c r="N31" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2994,46 +3027,46 @@
         <v>40</v>
       </c>
       <c r="D32" s="7">
-        <v>27382</v>
+        <v>25083</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>108</v>
       </c>
       <c r="I32" s="7">
-        <v>47511</v>
+        <v>42975</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>148</v>
       </c>
       <c r="N32" s="7">
-        <v>74892</v>
+        <v>68058</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,154 +3078,154 @@
         <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>1498</v>
+        <v>1360</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
       </c>
       <c r="I33" s="7">
-        <v>2300</v>
+        <v>2096</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>3799</v>
+        <v>3456</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>1756</v>
+        <v>1603</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>2518</v>
+        <v>2296</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>749</v>
+        <v>676</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>1263</v>
+        <v>1127</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
       </c>
       <c r="N35" s="7">
-        <v>2012</v>
+        <v>1803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3204,91 +3237,91 @@
         <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7">
         <v>235</v>
       </c>
       <c r="D37" s="7">
-        <v>166357</v>
+        <v>150930</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
         <v>373</v>
       </c>
       <c r="I37" s="7">
-        <v>178672</v>
+        <v>160492</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
         <v>608</v>
       </c>
       <c r="N37" s="7">
-        <v>345029</v>
+        <v>311421</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,51 +3333,51 @@
         <v>279</v>
       </c>
       <c r="D38" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H38" s="7">
         <v>492</v>
       </c>
       <c r="I38" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M38" s="7">
         <v>771</v>
       </c>
       <c r="N38" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3353,46 +3386,46 @@
         <v>11</v>
       </c>
       <c r="D39" s="7">
-        <v>12810</v>
+        <v>12595</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
       </c>
       <c r="I39" s="7">
-        <v>4740</v>
+        <v>4305</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M39" s="7">
         <v>16</v>
       </c>
       <c r="N39" s="7">
-        <v>17550</v>
+        <v>16899</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,52 +3437,52 @@
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>947</v>
+        <v>886</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
       </c>
       <c r="I40" s="7">
-        <v>1985</v>
+        <v>1826</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>2933</v>
+        <v>2712</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3461,97 +3494,97 @@
         <v>22</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
       </c>
       <c r="I41" s="7">
-        <v>2015</v>
+        <v>1798</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>2015</v>
+        <v>1798</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>940</v>
+        <v>875</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
       </c>
       <c r="N42" s="7">
-        <v>1804</v>
+        <v>1720</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3563,10 +3596,10 @@
         <v>22</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3578,10 +3611,10 @@
         <v>22</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3593,61 +3626,61 @@
         <v>22</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" s="7">
         <v>358</v>
       </c>
       <c r="D44" s="7">
-        <v>262603</v>
+        <v>255311</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H44" s="7">
         <v>449</v>
       </c>
       <c r="I44" s="7">
-        <v>265942</v>
+        <v>248252</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M44" s="7">
         <v>807</v>
       </c>
       <c r="N44" s="7">
-        <v>528544</v>
+        <v>503563</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,51 +3692,51 @@
         <v>371</v>
       </c>
       <c r="D45" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H45" s="7">
         <v>460</v>
       </c>
       <c r="I45" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M45" s="7">
         <v>831</v>
       </c>
       <c r="N45" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3712,46 +3745,46 @@
         <v>26</v>
       </c>
       <c r="D46" s="7">
-        <v>31252</v>
+        <v>30936</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
       </c>
       <c r="I46" s="7">
-        <v>27101</v>
+        <v>24701</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="M46" s="7">
         <v>53</v>
       </c>
       <c r="N46" s="7">
-        <v>58353</v>
+        <v>55637</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,250 +3796,250 @@
         <v>18</v>
       </c>
       <c r="D47" s="7">
-        <v>16232</v>
+        <v>15823</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="H47" s="7">
         <v>15</v>
       </c>
       <c r="I47" s="7">
-        <v>10581</v>
+        <v>9869</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M47" s="7">
         <v>33</v>
       </c>
       <c r="N47" s="7">
-        <v>26812</v>
+        <v>25692</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>251</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>8</v>
       </c>
       <c r="D48" s="7">
-        <v>8738</v>
+        <v>8444</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
       </c>
       <c r="I48" s="7">
-        <v>8174</v>
+        <v>7487</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="M48" s="7">
         <v>16</v>
       </c>
       <c r="N48" s="7">
-        <v>16912</v>
+        <v>15931</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C49" s="7">
         <v>8</v>
       </c>
       <c r="D49" s="7">
-        <v>9061</v>
+        <v>9420</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
       </c>
       <c r="I49" s="7">
-        <v>8153</v>
+        <v>7144</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
       </c>
       <c r="N49" s="7">
-        <v>17213</v>
+        <v>16565</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>5</v>
       </c>
       <c r="D50" s="7">
-        <v>11195</v>
+        <v>12370</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
       </c>
       <c r="I50" s="7">
-        <v>6057</v>
+        <v>5953</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
       </c>
       <c r="N50" s="7">
-        <v>17251</v>
+        <v>18323</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>262</v>
+        <v>69</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C51" s="7">
         <v>526</v>
       </c>
       <c r="D51" s="7">
-        <v>543341</v>
+        <v>539582</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="H51" s="7">
         <v>890</v>
       </c>
       <c r="I51" s="7">
-        <v>736977</v>
+        <v>787463</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="M51" s="7">
         <v>1416</v>
       </c>
       <c r="N51" s="7">
-        <v>1280318</v>
+        <v>1327045</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,51 +4051,51 @@
         <v>591</v>
       </c>
       <c r="D52" s="7">
-        <v>619818</v>
+        <v>616575</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H52" s="7">
         <v>950</v>
       </c>
       <c r="I52" s="7">
-        <v>797042</v>
+        <v>842617</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M52" s="7">
         <v>1541</v>
       </c>
       <c r="N52" s="7">
-        <v>1416860</v>
+        <v>1459192</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4071,46 +4104,46 @@
         <v>8</v>
       </c>
       <c r="D53" s="7">
-        <v>10390</v>
+        <v>8880</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="H53" s="7">
         <v>15</v>
       </c>
       <c r="I53" s="7">
-        <v>15719</v>
+        <v>12437</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="M53" s="7">
         <v>23</v>
       </c>
       <c r="N53" s="7">
-        <v>26109</v>
+        <v>21317</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,250 +4155,250 @@
         <v>5</v>
       </c>
       <c r="D54" s="7">
-        <v>4789</v>
+        <v>4058</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="H54" s="7">
         <v>11</v>
       </c>
       <c r="I54" s="7">
-        <v>14729</v>
+        <v>11692</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M54" s="7">
         <v>16</v>
       </c>
       <c r="N54" s="7">
-        <v>19518</v>
+        <v>15749</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" s="7">
         <v>10</v>
       </c>
       <c r="D55" s="7">
-        <v>13854</v>
+        <v>11774</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="H55" s="7">
         <v>8</v>
       </c>
       <c r="I55" s="7">
-        <v>8139</v>
+        <v>6653</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="M55" s="7">
         <v>18</v>
       </c>
       <c r="N55" s="7">
-        <v>21992</v>
+        <v>18427</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C56" s="7">
         <v>9</v>
       </c>
       <c r="D56" s="7">
-        <v>10411</v>
+        <v>8658</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="H56" s="7">
         <v>10</v>
       </c>
       <c r="I56" s="7">
-        <v>10056</v>
+        <v>8241</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="M56" s="7">
         <v>19</v>
       </c>
       <c r="N56" s="7">
-        <v>20467</v>
+        <v>16899</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C57" s="7">
         <v>3</v>
       </c>
       <c r="D57" s="7">
-        <v>53793</v>
+        <v>246541</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H57" s="7">
         <v>5</v>
       </c>
       <c r="I57" s="7">
-        <v>4520</v>
+        <v>3678</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="M57" s="7">
         <v>8</v>
       </c>
       <c r="N57" s="7">
-        <v>58313</v>
+        <v>250218</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C58" s="7">
         <v>725</v>
       </c>
       <c r="D58" s="7">
-        <v>764110</v>
+        <v>646996</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="H58" s="7">
         <v>1013</v>
       </c>
       <c r="I58" s="7">
-        <v>815271</v>
+        <v>675031</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M58" s="7">
         <v>1738</v>
       </c>
       <c r="N58" s="7">
-        <v>1579381</v>
+        <v>1322028</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,46 +4410,46 @@
         <v>760</v>
       </c>
       <c r="D59" s="7">
-        <v>857347</v>
+        <v>926906</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H59" s="7">
         <v>1062</v>
       </c>
       <c r="I59" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M59" s="7">
         <v>1822</v>
       </c>
       <c r="N59" s="7">
-        <v>1725781</v>
+        <v>1644638</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,46 +4463,46 @@
         <v>106</v>
       </c>
       <c r="D60" s="7">
-        <v>114039</v>
+        <v>111174</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="H60" s="7">
         <v>189</v>
       </c>
       <c r="I60" s="7">
-        <v>125646</v>
+        <v>113078</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="M60" s="7">
         <v>295</v>
       </c>
       <c r="N60" s="7">
-        <v>239685</v>
+        <v>224253</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,250 +4514,250 @@
         <v>52</v>
       </c>
       <c r="D61" s="7">
-        <v>53180</v>
+        <v>51381</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H61" s="7">
         <v>52</v>
       </c>
       <c r="I61" s="7">
-        <v>45461</v>
+        <v>40760</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M61" s="7">
         <v>104</v>
       </c>
       <c r="N61" s="7">
-        <v>98641</v>
+        <v>92141</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" s="7">
         <v>30</v>
       </c>
       <c r="D62" s="7">
-        <v>39382</v>
+        <v>37411</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H62" s="7">
         <v>31</v>
       </c>
       <c r="I62" s="7">
-        <v>26722</v>
+        <v>23740</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="M62" s="7">
         <v>61</v>
       </c>
       <c r="N62" s="7">
-        <v>66103</v>
+        <v>61151</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>151</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C63" s="7">
         <v>29</v>
       </c>
       <c r="D63" s="7">
-        <v>38066</v>
+        <v>38109</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="H63" s="7">
         <v>24</v>
       </c>
       <c r="I63" s="7">
-        <v>26260</v>
+        <v>22845</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="M63" s="7">
         <v>53</v>
       </c>
       <c r="N63" s="7">
-        <v>64326</v>
+        <v>60953</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C64" s="7">
         <v>15</v>
       </c>
       <c r="D64" s="7">
-        <v>78906</v>
+        <v>278232</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="H64" s="7">
         <v>17</v>
       </c>
       <c r="I64" s="7">
-        <v>16617</v>
+        <v>15192</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>318</v>
+        <v>96</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="M64" s="7">
         <v>32</v>
       </c>
       <c r="N64" s="7">
-        <v>95523</v>
+        <v>293424</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>198</v>
+        <v>329</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C65" s="7">
         <v>3134</v>
       </c>
       <c r="D65" s="7">
-        <v>3051637</v>
+        <v>2933993</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="H65" s="7">
         <v>5041</v>
       </c>
       <c r="I65" s="7">
-        <v>3560106</v>
+        <v>3439894</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="M65" s="7">
         <v>8175</v>
       </c>
       <c r="N65" s="7">
-        <v>6611743</v>
+        <v>6373886</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,51 +4769,51 @@
         <v>3366</v>
       </c>
       <c r="D66" s="7">
-        <v>3375211</v>
+        <v>3450299</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H66" s="7">
         <v>5354</v>
       </c>
       <c r="I66" s="7">
-        <v>3800811</v>
+        <v>3655510</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M66" s="7">
         <v>8720</v>
       </c>
       <c r="N66" s="7">
-        <v>7176022</v>
+        <v>7105808</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
